--- a/data/cosas_emx2_demo.xlsx
+++ b/data/cosas_emx2_demo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dcruvolo/GitHub/molgenis-cosas/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E872345A-9352-1A48-A28C-6E8066BA0EF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C2A24C-3532-B143-8B57-DAEBB76D99F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35560" yWindow="-2540" windowWidth="32620" windowHeight="14840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-35560" yWindow="-2540" windowWidth="32620" windowHeight="14840" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="organizations" sheetId="9" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="samples" sheetId="2" r:id="rId7"/>
     <sheet name="samplePreparation" sheetId="5" r:id="rId8"/>
     <sheet name="sequencing" sheetId="6" r:id="rId9"/>
+    <sheet name="files" sheetId="11" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">subjects!$A$1:$Y$51</definedName>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3349" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3437" uniqueCount="566">
   <si>
     <t>ancestry</t>
   </si>
@@ -1644,6 +1645,102 @@
   </si>
   <si>
     <t>DE</t>
+  </si>
+  <si>
+    <t>samplePreparationID</t>
+  </si>
+  <si>
+    <t>fileID</t>
+  </si>
+  <si>
+    <t>producedBySequencing</t>
+  </si>
+  <si>
+    <t>belongsToCohort</t>
+  </si>
+  <si>
+    <t>fileName</t>
+  </si>
+  <si>
+    <t>filePath</t>
+  </si>
+  <si>
+    <t>fileFormat</t>
+  </si>
+  <si>
+    <t>fileSize</t>
+  </si>
+  <si>
+    <t>server</t>
+  </si>
+  <si>
+    <t>md5checksum</t>
+  </si>
+  <si>
+    <t>fileStatus</t>
+  </si>
+  <si>
+    <t>dateFileCreated</t>
+  </si>
+  <si>
+    <t>alternativeFileIdentifiers</t>
+  </si>
+  <si>
+    <t>json</t>
+  </si>
+  <si>
+    <t>svr12345</t>
+  </si>
+  <si>
+    <t>Live</t>
+  </si>
+  <si>
+    <t>Invalid</t>
+  </si>
+  <si>
+    <t>Redacted</t>
+  </si>
+  <si>
+    <t>Phenopacket.P900019.json</t>
+  </si>
+  <si>
+    <t>/projects/studies/S001/phenopackets/</t>
+  </si>
+  <si>
+    <t>Phenopacket.P900015.json</t>
+  </si>
+  <si>
+    <t>Phenopacket.P900026.json</t>
+  </si>
+  <si>
+    <t>Phenopacket.P900043.json</t>
+  </si>
+  <si>
+    <t>/projects/studies/S002/phenopackets/</t>
+  </si>
+  <si>
+    <t>Phenopacket.P900010.json</t>
+  </si>
+  <si>
+    <t>87963190698</t>
+  </si>
+  <si>
+    <t>22897886611</t>
+  </si>
+  <si>
+    <t>90047210378</t>
+  </si>
+  <si>
+    <t>31789753192</t>
+  </si>
+  <si>
+    <t>28133102953</t>
+  </si>
+  <si>
+    <t>file is corrupted</t>
+  </si>
+  <si>
+    <t>file withdrawn from the server</t>
   </si>
 </sst>
 </file>
@@ -1711,17 +1808,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2039,7 +2135,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FF2C314-EB02-B841-9216-9080BEFA1C66}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
@@ -2096,8 +2192,367 @@
       <c r="D3" t="s">
         <v>157</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" t="s">
         <v>156</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{578174D9-EAA3-7A45-BECC-40EF722258CC}">
+  <dimension ref="A1:U6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.33203125" customWidth="1"/>
+    <col min="18" max="18" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>535</v>
+      </c>
+      <c r="B1" t="s">
+        <v>536</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>537</v>
+      </c>
+      <c r="G1" t="s">
+        <v>538</v>
+      </c>
+      <c r="H1" t="s">
+        <v>539</v>
+      </c>
+      <c r="I1" t="s">
+        <v>540</v>
+      </c>
+      <c r="J1" t="s">
+        <v>541</v>
+      </c>
+      <c r="K1" t="s">
+        <v>542</v>
+      </c>
+      <c r="L1" t="s">
+        <v>543</v>
+      </c>
+      <c r="M1" t="s">
+        <v>544</v>
+      </c>
+      <c r="N1" t="s">
+        <v>545</v>
+      </c>
+      <c r="O1" t="s">
+        <v>546</v>
+      </c>
+      <c r="P1" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>77</v>
+      </c>
+      <c r="R1" t="s">
+        <v>74</v>
+      </c>
+      <c r="S1" t="s">
+        <v>134</v>
+      </c>
+      <c r="T1" t="s">
+        <v>75</v>
+      </c>
+      <c r="U1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>11220356</v>
+      </c>
+      <c r="B2" t="s">
+        <v>386</v>
+      </c>
+      <c r="C2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="G2" t="s">
+        <v>552</v>
+      </c>
+      <c r="H2" t="s">
+        <v>553</v>
+      </c>
+      <c r="I2" t="s">
+        <v>547</v>
+      </c>
+      <c r="J2">
+        <v>29</v>
+      </c>
+      <c r="K2" t="s">
+        <v>548</v>
+      </c>
+      <c r="L2" t="s">
+        <v>559</v>
+      </c>
+      <c r="M2" t="s">
+        <v>549</v>
+      </c>
+      <c r="N2" s="8">
+        <v>44519</v>
+      </c>
+      <c r="P2" t="s">
+        <v>424</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>11220357</v>
+      </c>
+      <c r="B3" t="s">
+        <v>382</v>
+      </c>
+      <c r="C3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D3" t="s">
+        <v>282</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="G3" t="s">
+        <v>554</v>
+      </c>
+      <c r="H3" t="s">
+        <v>553</v>
+      </c>
+      <c r="I3" t="s">
+        <v>547</v>
+      </c>
+      <c r="J3">
+        <v>85</v>
+      </c>
+      <c r="K3" t="s">
+        <v>548</v>
+      </c>
+      <c r="L3" t="s">
+        <v>560</v>
+      </c>
+      <c r="M3" t="s">
+        <v>549</v>
+      </c>
+      <c r="N3" s="8">
+        <v>44519</v>
+      </c>
+      <c r="P3" t="s">
+        <v>424</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>11220358</v>
+      </c>
+      <c r="B4" t="s">
+        <v>393</v>
+      </c>
+      <c r="C4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D4" t="s">
+        <v>293</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="G4" t="s">
+        <v>555</v>
+      </c>
+      <c r="H4" t="s">
+        <v>553</v>
+      </c>
+      <c r="I4" t="s">
+        <v>547</v>
+      </c>
+      <c r="J4">
+        <v>20</v>
+      </c>
+      <c r="K4" t="s">
+        <v>548</v>
+      </c>
+      <c r="L4" t="s">
+        <v>561</v>
+      </c>
+      <c r="M4" t="s">
+        <v>549</v>
+      </c>
+      <c r="N4" s="8">
+        <v>44519</v>
+      </c>
+      <c r="P4" t="s">
+        <v>424</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>11220359</v>
+      </c>
+      <c r="B5" t="s">
+        <v>410</v>
+      </c>
+      <c r="C5" t="s">
+        <v>200</v>
+      </c>
+      <c r="D5" t="s">
+        <v>310</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="G5" t="s">
+        <v>556</v>
+      </c>
+      <c r="H5" t="s">
+        <v>557</v>
+      </c>
+      <c r="I5" t="s">
+        <v>547</v>
+      </c>
+      <c r="J5">
+        <v>13</v>
+      </c>
+      <c r="K5" t="s">
+        <v>548</v>
+      </c>
+      <c r="L5" t="s">
+        <v>562</v>
+      </c>
+      <c r="M5" t="s">
+        <v>550</v>
+      </c>
+      <c r="N5" s="8">
+        <v>44519</v>
+      </c>
+      <c r="P5" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>564</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>11220360</v>
+      </c>
+      <c r="B6" t="s">
+        <v>377</v>
+      </c>
+      <c r="C6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D6" t="s">
+        <v>277</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="G6" t="s">
+        <v>558</v>
+      </c>
+      <c r="H6" t="s">
+        <v>553</v>
+      </c>
+      <c r="I6" t="s">
+        <v>547</v>
+      </c>
+      <c r="J6">
+        <v>56</v>
+      </c>
+      <c r="K6" t="s">
+        <v>548</v>
+      </c>
+      <c r="L6" t="s">
+        <v>563</v>
+      </c>
+      <c r="M6" t="s">
+        <v>551</v>
+      </c>
+      <c r="N6" s="8">
+        <v>44519</v>
+      </c>
+      <c r="P6" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>565</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -2110,7 +2565,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E2" sqref="E2:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2156,7 +2611,7 @@
       <c r="C2" t="s">
         <v>426</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="6">
         <v>44511</v>
       </c>
       <c r="E2" t="s">
@@ -2179,7 +2634,7 @@
       <c r="C3" t="s">
         <v>427</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <v>44516</v>
       </c>
       <c r="E3" t="s">
@@ -2313,13 +2768,13 @@
       <c r="G2" t="s">
         <v>140</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="6">
         <v>44515</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="6">
         <v>44515</v>
       </c>
       <c r="L2" t="s">
@@ -2369,13 +2824,13 @@
       <c r="G3" t="s">
         <v>140</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="6">
         <v>44516</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="6">
         <v>44516</v>
       </c>
       <c r="L3" t="s">
@@ -2419,9 +2874,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y51"/>
   <sheetViews>
-    <sheetView zoomScale="111" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L47" sqref="L47"/>
+    <sheetView topLeftCell="E1" zoomScale="111" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S37" sqref="S37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2431,11 +2886,11 @@
     <col min="3" max="4" width="13.83203125" customWidth="1"/>
     <col min="5" max="5" width="48.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.6640625" customWidth="1"/>
-    <col min="7" max="7" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" style="6" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.6640625" customWidth="1"/>
-    <col min="11" max="11" width="9.6640625" style="9" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" style="7" customWidth="1"/>
     <col min="12" max="12" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20.83203125" customWidth="1"/>
     <col min="14" max="14" width="14.6640625" customWidth="1"/>
@@ -2470,19 +2925,19 @@
       <c r="F1" t="s">
         <v>132</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>111</v>
       </c>
       <c r="H1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>112</v>
       </c>
       <c r="J1" t="s">
         <v>212</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L1" t="s">
@@ -2529,33 +2984,31 @@
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" t="s">
         <v>161</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" t="s">
         <v>213</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5" t="s">
+      <c r="E2" t="s">
         <v>182</v>
       </c>
       <c r="F2" t="s">
         <v>130</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="6">
         <v>29334</v>
       </c>
       <c r="H2">
         <v>1980</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="6" t="s">
         <v>237</v>
       </c>
       <c r="J2" t="s">
         <v>237</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="7" t="s">
         <v>237</v>
       </c>
       <c r="L2" t="s">
@@ -2593,35 +3046,34 @@
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" t="s">
         <v>182</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" t="s">
         <v>213</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" t="s">
         <v>161</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5" t="s">
+      <c r="E3" t="s">
         <v>161</v>
       </c>
       <c r="F3" t="s">
         <v>130</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="6">
         <v>37373</v>
       </c>
       <c r="H3">
         <v>2002</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="6" t="s">
         <v>237</v>
       </c>
       <c r="J3" t="s">
         <v>237</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="7" t="s">
         <v>237</v>
       </c>
       <c r="L3" t="s">
@@ -2659,31 +3111,28 @@
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="A4" t="s">
         <v>168</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" t="s">
         <v>214</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
       <c r="F4" t="s">
         <v>130</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="6">
         <v>26484</v>
       </c>
       <c r="H4">
         <v>1972</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="6" t="s">
         <v>237</v>
       </c>
       <c r="J4" t="s">
         <v>237</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="7" t="s">
         <v>237</v>
       </c>
       <c r="L4" t="s">
@@ -2721,31 +3170,28 @@
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+      <c r="A5" t="s">
         <v>164</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" t="s">
         <v>215</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
       <c r="F5" t="s">
         <v>130</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="6">
         <v>32406</v>
       </c>
       <c r="H5">
         <v>1988</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="6" t="s">
         <v>237</v>
       </c>
       <c r="J5" t="s">
         <v>237</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="K5" s="7" t="s">
         <v>237</v>
       </c>
       <c r="L5" t="s">
@@ -2783,33 +3229,31 @@
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+      <c r="A6" t="s">
         <v>180</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" t="s">
         <v>216</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5" t="s">
+      <c r="E6" t="s">
         <v>244</v>
       </c>
       <c r="F6" t="s">
         <v>130</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="6">
         <v>23464</v>
       </c>
       <c r="H6">
         <v>1964</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="6" t="s">
         <v>237</v>
       </c>
       <c r="J6" t="s">
         <v>237</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="K6" s="7" t="s">
         <v>237</v>
       </c>
       <c r="L6" t="s">
@@ -2847,33 +3291,31 @@
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+      <c r="A7" t="s">
         <v>184</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" t="s">
         <v>216</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5" t="s">
+      <c r="E7" t="s">
         <v>245</v>
       </c>
       <c r="F7" t="s">
         <v>130</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="6">
         <v>24815</v>
       </c>
       <c r="H7">
         <v>1967</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="6" t="s">
         <v>237</v>
       </c>
       <c r="J7" t="s">
         <v>237</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="K7" s="7" t="s">
         <v>237</v>
       </c>
       <c r="L7" t="s">
@@ -2911,37 +3353,37 @@
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+      <c r="A8" t="s">
         <v>187</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" t="s">
         <v>216</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" t="s">
         <v>184</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" t="s">
         <v>180</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" t="s">
         <v>246</v>
       </c>
       <c r="F8" t="s">
         <v>130</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="6">
         <v>32165</v>
       </c>
       <c r="H8">
         <v>1988</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="6" t="s">
         <v>237</v>
       </c>
       <c r="J8" t="s">
         <v>237</v>
       </c>
-      <c r="K8" s="9" t="s">
+      <c r="K8" s="7" t="s">
         <v>237</v>
       </c>
       <c r="L8" t="s">
@@ -2979,33 +3421,31 @@
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+      <c r="A9" t="s">
         <v>179</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" t="s">
         <v>217</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5" t="s">
+      <c r="E9" t="s">
         <v>242</v>
       </c>
       <c r="F9" t="s">
         <v>130</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="6">
         <v>37435</v>
       </c>
       <c r="H9">
         <v>2002</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="6" t="s">
         <v>237</v>
       </c>
       <c r="J9" t="s">
         <v>237</v>
       </c>
-      <c r="K9" s="9" t="s">
+      <c r="K9" s="7" t="s">
         <v>237</v>
       </c>
       <c r="L9" t="s">
@@ -3043,31 +3483,31 @@
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+      <c r="A10" t="s">
         <v>205</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" t="s">
         <v>217</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" t="s">
         <v>242</v>
       </c>
       <c r="F10" t="s">
         <v>130</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="6">
         <v>36784</v>
       </c>
       <c r="H10">
         <v>2000</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="6" t="s">
         <v>237</v>
       </c>
       <c r="J10" t="s">
         <v>237</v>
       </c>
-      <c r="K10" s="9" t="s">
+      <c r="K10" s="7" t="s">
         <v>237</v>
       </c>
       <c r="L10" t="s">
@@ -3105,31 +3545,28 @@
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+      <c r="A11" t="s">
         <v>170</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" t="s">
         <v>218</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
       <c r="F11" t="s">
         <v>130</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="6">
         <v>32647</v>
       </c>
       <c r="H11">
         <v>1989</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="I11" s="6" t="s">
         <v>237</v>
       </c>
       <c r="J11" t="s">
         <v>237</v>
       </c>
-      <c r="K11" s="9" t="s">
+      <c r="K11" s="7" t="s">
         <v>237</v>
       </c>
       <c r="L11" t="s">
@@ -3167,33 +3604,31 @@
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+      <c r="A12" t="s">
         <v>173</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" t="s">
         <v>219</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5" t="s">
+      <c r="E12" t="s">
         <v>191</v>
       </c>
       <c r="F12" t="s">
         <v>130</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="6">
         <v>25172</v>
       </c>
       <c r="H12">
         <v>1968</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="I12" s="6" t="s">
         <v>237</v>
       </c>
       <c r="J12" t="s">
         <v>237</v>
       </c>
-      <c r="K12" s="9" t="s">
+      <c r="K12" s="7" t="s">
         <v>237</v>
       </c>
       <c r="L12" t="s">
@@ -3231,34 +3666,34 @@
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+      <c r="A13" t="s">
         <v>191</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" t="s">
         <v>219</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" t="s">
         <v>173</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" t="s">
         <v>173</v>
       </c>
       <c r="F13" t="s">
         <v>130</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="6">
         <v>32858</v>
       </c>
       <c r="H13">
         <v>1989</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="I13" s="6" t="s">
         <v>237</v>
       </c>
       <c r="J13" t="s">
         <v>237</v>
       </c>
-      <c r="K13" s="9" t="s">
+      <c r="K13" s="7" t="s">
         <v>237</v>
       </c>
       <c r="L13" t="s">
@@ -3296,37 +3731,37 @@
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
+      <c r="A14" t="s">
         <v>160</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" t="s">
         <v>220</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" t="s">
         <v>162</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" t="s">
         <v>186</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" t="s">
         <v>249</v>
       </c>
       <c r="F14" t="s">
         <v>131</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="6">
         <v>35560</v>
       </c>
       <c r="H14">
         <v>1997</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="6">
         <v>41585</v>
       </c>
       <c r="J14">
         <v>2013</v>
       </c>
-      <c r="K14" s="9">
+      <c r="K14" s="7">
         <v>16.506849315068493</v>
       </c>
       <c r="L14" t="s">
@@ -3364,33 +3799,31 @@
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
+      <c r="A15" t="s">
         <v>162</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" t="s">
         <v>220</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5" t="s">
+      <c r="E15" t="s">
         <v>248</v>
       </c>
       <c r="F15" t="s">
         <v>130</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="6">
         <v>23150</v>
       </c>
       <c r="H15">
         <v>1963</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="I15" s="6" t="s">
         <v>237</v>
       </c>
       <c r="J15" t="s">
         <v>237</v>
       </c>
-      <c r="K15" s="9" t="s">
+      <c r="K15" s="7" t="s">
         <v>237</v>
       </c>
       <c r="L15" t="s">
@@ -3428,37 +3861,37 @@
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
+      <c r="A16" t="s">
         <v>185</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" t="s">
         <v>220</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" t="s">
         <v>162</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" t="s">
         <v>186</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" t="s">
         <v>250</v>
       </c>
       <c r="F16" t="s">
         <v>130</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="6">
         <v>34980</v>
       </c>
       <c r="H16">
         <v>1995</v>
       </c>
-      <c r="I16" s="7" t="s">
+      <c r="I16" s="6" t="s">
         <v>237</v>
       </c>
       <c r="J16" t="s">
         <v>237</v>
       </c>
-      <c r="K16" s="9" t="s">
+      <c r="K16" s="7" t="s">
         <v>237</v>
       </c>
       <c r="L16" t="s">
@@ -3496,33 +3929,31 @@
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
+      <c r="A17" t="s">
         <v>186</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" t="s">
         <v>220</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5" t="s">
+      <c r="E17" t="s">
         <v>247</v>
       </c>
       <c r="F17" t="s">
         <v>131</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="6">
         <v>26282</v>
       </c>
       <c r="H17">
         <v>1971</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="6">
         <v>40620</v>
       </c>
       <c r="J17">
         <v>2011</v>
       </c>
-      <c r="K17" s="9">
+      <c r="K17" s="7">
         <v>39.282191780821918</v>
       </c>
       <c r="L17" t="s">
@@ -3560,33 +3991,31 @@
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
+      <c r="A18" t="s">
         <v>181</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" t="s">
         <v>221</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5" t="s">
+      <c r="E18" t="s">
         <v>251</v>
       </c>
       <c r="F18" t="s">
         <v>130</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="6">
         <v>25044</v>
       </c>
       <c r="H18">
         <v>1968</v>
       </c>
-      <c r="I18" s="7" t="s">
+      <c r="I18" s="6" t="s">
         <v>237</v>
       </c>
       <c r="J18" t="s">
         <v>237</v>
       </c>
-      <c r="K18" s="9" t="s">
+      <c r="K18" s="7" t="s">
         <v>237</v>
       </c>
       <c r="L18" t="s">
@@ -3624,37 +4053,37 @@
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
+      <c r="A19" t="s">
         <v>204</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" t="s">
         <v>221</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" t="s">
         <v>181</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" t="s">
         <v>207</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" t="s">
         <v>252</v>
       </c>
       <c r="F19" t="s">
         <v>131</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="6">
         <v>34429</v>
       </c>
       <c r="H19">
         <v>1994</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I19" s="6">
         <v>39550</v>
       </c>
       <c r="J19">
         <v>2008</v>
       </c>
-      <c r="K19" s="9">
+      <c r="K19" s="7">
         <v>14.03013698630137</v>
       </c>
       <c r="L19" t="s">
@@ -3692,37 +4121,37 @@
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
+      <c r="A20" t="s">
         <v>206</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" t="s">
         <v>221</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" t="s">
         <v>181</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" t="s">
         <v>207</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" t="s">
         <v>253</v>
       </c>
       <c r="F20" t="s">
         <v>130</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="6">
         <v>36529</v>
       </c>
       <c r="H20">
         <v>2000</v>
       </c>
-      <c r="I20" s="7" t="s">
+      <c r="I20" s="6" t="s">
         <v>237</v>
       </c>
       <c r="J20" t="s">
         <v>237</v>
       </c>
-      <c r="K20" s="9" t="s">
+      <c r="K20" s="7" t="s">
         <v>237</v>
       </c>
       <c r="L20" t="s">
@@ -3760,31 +4189,31 @@
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
+      <c r="A21" t="s">
         <v>207</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" t="s">
         <v>221</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" t="s">
         <v>243</v>
       </c>
       <c r="F21" t="s">
         <v>130</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="6">
         <v>25615</v>
       </c>
       <c r="H21">
         <v>1970</v>
       </c>
-      <c r="I21" s="7" t="s">
+      <c r="I21" s="6" t="s">
         <v>237</v>
       </c>
       <c r="J21" t="s">
         <v>237</v>
       </c>
-      <c r="K21" s="9" t="s">
+      <c r="K21" s="7" t="s">
         <v>237</v>
       </c>
       <c r="L21" t="s">
@@ -3822,35 +4251,34 @@
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
+      <c r="A22" t="s">
         <v>174</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" t="s">
         <v>222</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" t="s">
         <v>197</v>
       </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5" t="s">
+      <c r="E22" t="s">
         <v>241</v>
       </c>
       <c r="F22" t="s">
         <v>130</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G22" s="6">
         <v>37664</v>
       </c>
       <c r="H22">
         <v>2003</v>
       </c>
-      <c r="I22" s="7" t="s">
+      <c r="I22" s="6" t="s">
         <v>237</v>
       </c>
       <c r="J22" t="s">
         <v>237</v>
       </c>
-      <c r="K22" s="9" t="s">
+      <c r="K22" s="7" t="s">
         <v>237</v>
       </c>
       <c r="L22" t="s">
@@ -3888,34 +4316,34 @@
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
+      <c r="A23" t="s">
         <v>192</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" t="s">
         <v>222</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" t="s">
         <v>197</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" t="s">
         <v>241</v>
       </c>
       <c r="F23" t="s">
         <v>130</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23" s="6">
         <v>34900</v>
       </c>
       <c r="H23">
         <v>1995</v>
       </c>
-      <c r="I23" s="7" t="s">
+      <c r="I23" s="6" t="s">
         <v>237</v>
       </c>
       <c r="J23" t="s">
         <v>237</v>
       </c>
-      <c r="K23" s="9" t="s">
+      <c r="K23" s="7" t="s">
         <v>237</v>
       </c>
       <c r="L23" t="s">
@@ -3953,31 +4381,31 @@
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
+      <c r="A24" t="s">
         <v>197</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" t="s">
         <v>222</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" t="s">
         <v>241</v>
       </c>
       <c r="F24" t="s">
         <v>130</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G24" s="6">
         <v>30285</v>
       </c>
       <c r="H24">
         <v>1982</v>
       </c>
-      <c r="I24" s="7" t="s">
+      <c r="I24" s="6" t="s">
         <v>237</v>
       </c>
       <c r="J24" t="s">
         <v>237</v>
       </c>
-      <c r="K24" s="9" t="s">
+      <c r="K24" s="7" t="s">
         <v>237</v>
       </c>
       <c r="L24" t="s">
@@ -4015,31 +4443,28 @@
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
+      <c r="A25" t="s">
         <v>165</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" t="s">
         <v>223</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
       <c r="F25" t="s">
         <v>130</v>
       </c>
-      <c r="G25" s="7">
+      <c r="G25" s="6">
         <v>30408</v>
       </c>
       <c r="H25">
         <v>1983</v>
       </c>
-      <c r="I25" s="7" t="s">
+      <c r="I25" s="6" t="s">
         <v>237</v>
       </c>
       <c r="J25" t="s">
         <v>237</v>
       </c>
-      <c r="K25" s="9" t="s">
+      <c r="K25" s="7" t="s">
         <v>237</v>
       </c>
       <c r="L25" t="s">
@@ -4077,29 +4502,28 @@
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
+      <c r="A26" t="s">
         <v>202</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" t="s">
         <v>224</v>
       </c>
-      <c r="E26" s="5"/>
       <c r="F26" t="s">
         <v>130</v>
       </c>
-      <c r="G26" s="7">
+      <c r="G26" s="6">
         <v>31528</v>
       </c>
       <c r="H26">
         <v>1986</v>
       </c>
-      <c r="I26" s="7" t="s">
+      <c r="I26" s="6" t="s">
         <v>237</v>
       </c>
       <c r="J26" t="s">
         <v>237</v>
       </c>
-      <c r="K26" s="9" t="s">
+      <c r="K26" s="7" t="s">
         <v>237</v>
       </c>
       <c r="L26" t="s">
@@ -4137,29 +4561,28 @@
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
+      <c r="A27" t="s">
         <v>194</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" t="s">
         <v>225</v>
       </c>
-      <c r="E27" s="5"/>
       <c r="F27" t="s">
         <v>130</v>
       </c>
-      <c r="G27" s="7">
+      <c r="G27" s="6">
         <v>31776</v>
       </c>
       <c r="H27">
         <v>1986</v>
       </c>
-      <c r="I27" s="7" t="s">
+      <c r="I27" s="6" t="s">
         <v>237</v>
       </c>
       <c r="J27" t="s">
         <v>237</v>
       </c>
-      <c r="K27" s="9" t="s">
+      <c r="K27" s="7" t="s">
         <v>237</v>
       </c>
       <c r="L27" t="s">
@@ -4197,31 +4620,31 @@
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
+      <c r="A28" t="s">
         <v>198</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" t="s">
         <v>226</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" t="s">
         <v>203</v>
       </c>
       <c r="F28" t="s">
         <v>130</v>
       </c>
-      <c r="G28" s="7">
+      <c r="G28" s="6">
         <v>29447</v>
       </c>
       <c r="H28">
         <v>1980</v>
       </c>
-      <c r="I28" s="7" t="s">
+      <c r="I28" s="6" t="s">
         <v>237</v>
       </c>
       <c r="J28" t="s">
         <v>237</v>
       </c>
-      <c r="K28" s="9" t="s">
+      <c r="K28" s="7" t="s">
         <v>237</v>
       </c>
       <c r="L28" t="s">
@@ -4259,34 +4682,34 @@
       </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
+      <c r="A29" t="s">
         <v>203</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" t="s">
         <v>226</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" t="s">
         <v>198</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" t="s">
         <v>198</v>
       </c>
       <c r="F29" t="s">
         <v>130</v>
       </c>
-      <c r="G29" s="7">
+      <c r="G29" s="6">
         <v>34987</v>
       </c>
       <c r="H29">
         <v>1995</v>
       </c>
-      <c r="I29" s="7" t="s">
+      <c r="I29" s="6" t="s">
         <v>237</v>
       </c>
       <c r="J29" t="s">
         <v>237</v>
       </c>
-      <c r="K29" s="9" t="s">
+      <c r="K29" s="7" t="s">
         <v>237</v>
       </c>
       <c r="L29" t="s">
@@ -4324,33 +4747,31 @@
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A30" s="5" t="s">
+      <c r="A30" t="s">
         <v>166</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" t="s">
         <v>227</v>
       </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5" t="s">
+      <c r="E30" t="s">
         <v>189</v>
       </c>
       <c r="F30" t="s">
         <v>130</v>
       </c>
-      <c r="G30" s="7">
+      <c r="G30" s="6">
         <v>27101</v>
       </c>
       <c r="H30">
         <v>1974</v>
       </c>
-      <c r="I30" s="7" t="s">
+      <c r="I30" s="6" t="s">
         <v>237</v>
       </c>
       <c r="J30" t="s">
         <v>237</v>
       </c>
-      <c r="K30" s="9" t="s">
+      <c r="K30" s="7" t="s">
         <v>237</v>
       </c>
       <c r="L30" t="s">
@@ -4388,34 +4809,34 @@
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="s">
+      <c r="A31" t="s">
         <v>189</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" t="s">
         <v>227</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" t="s">
         <v>166</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" t="s">
         <v>166</v>
       </c>
       <c r="F31" t="s">
         <v>130</v>
       </c>
-      <c r="G31" s="7">
+      <c r="G31" s="6">
         <v>35396</v>
       </c>
       <c r="H31">
         <v>1996</v>
       </c>
-      <c r="I31" s="7" t="s">
+      <c r="I31" s="6" t="s">
         <v>237</v>
       </c>
       <c r="J31" t="s">
         <v>237</v>
       </c>
-      <c r="K31" s="9" t="s">
+      <c r="K31" s="7" t="s">
         <v>237</v>
       </c>
       <c r="L31" t="s">
@@ -4453,21 +4874,19 @@
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A32" s="5" t="s">
+      <c r="A32" t="s">
         <v>163</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" t="s">
         <v>228</v>
       </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5" t="s">
+      <c r="E32" t="s">
         <v>255</v>
       </c>
       <c r="F32" t="s">
         <v>130</v>
       </c>
-      <c r="G32" s="7">
+      <c r="G32" s="6">
         <v>28522</v>
       </c>
       <c r="H32">
@@ -4508,35 +4927,34 @@
       </c>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A33" s="5" t="s">
+      <c r="A33" t="s">
         <v>169</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" t="s">
         <v>228</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" t="s">
         <v>163</v>
       </c>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5" t="s">
+      <c r="E33" t="s">
         <v>256</v>
       </c>
       <c r="F33" t="s">
         <v>130</v>
       </c>
-      <c r="G33" s="7">
+      <c r="G33" s="6">
         <v>36402</v>
       </c>
       <c r="H33">
         <v>1999</v>
       </c>
-      <c r="I33" s="7" t="s">
+      <c r="I33" s="6" t="s">
         <v>237</v>
       </c>
       <c r="J33" t="s">
         <v>237</v>
       </c>
-      <c r="K33" s="9" t="s">
+      <c r="K33" s="7" t="s">
         <v>237</v>
       </c>
       <c r="L33" t="s">
@@ -4574,34 +4992,34 @@
       </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A34" s="5" t="s">
+      <c r="A34" t="s">
         <v>193</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" t="s">
         <v>228</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" t="s">
         <v>163</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="E34" t="s">
         <v>257</v>
       </c>
       <c r="F34" t="s">
         <v>130</v>
       </c>
-      <c r="G34" s="7">
+      <c r="G34" s="6">
         <v>36402</v>
       </c>
       <c r="H34">
         <v>1999</v>
       </c>
-      <c r="I34" s="7" t="s">
+      <c r="I34" s="6" t="s">
         <v>237</v>
       </c>
       <c r="J34" t="s">
         <v>237</v>
       </c>
-      <c r="K34" s="9" t="s">
+      <c r="K34" s="7" t="s">
         <v>237</v>
       </c>
       <c r="L34" t="s">
@@ -4639,31 +5057,28 @@
       </c>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A35" s="5" t="s">
+      <c r="A35" t="s">
         <v>159</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" t="s">
         <v>229</v>
       </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
       <c r="F35" t="s">
         <v>131</v>
       </c>
-      <c r="G35" s="7">
+      <c r="G35" s="6">
         <v>34125</v>
       </c>
       <c r="H35">
         <v>1993</v>
       </c>
-      <c r="I35" s="7">
+      <c r="I35" s="6">
         <v>42340</v>
       </c>
       <c r="J35">
         <v>2015</v>
       </c>
-      <c r="K35" s="9">
+      <c r="K35" s="7">
         <v>22.506849315068493</v>
       </c>
       <c r="L35" t="s">
@@ -4701,33 +5116,31 @@
       </c>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A36" s="5" t="s">
+      <c r="A36" t="s">
         <v>175</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" t="s">
         <v>230</v>
       </c>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5" t="s">
+      <c r="E36" t="s">
         <v>176</v>
       </c>
       <c r="F36" t="s">
         <v>130</v>
       </c>
-      <c r="G36" s="7">
+      <c r="G36" s="6">
         <v>25712</v>
       </c>
       <c r="H36">
         <v>1970</v>
       </c>
-      <c r="I36" s="7" t="s">
+      <c r="I36" s="6" t="s">
         <v>237</v>
       </c>
       <c r="J36" t="s">
         <v>237</v>
       </c>
-      <c r="K36" s="9" t="s">
+      <c r="K36" s="7" t="s">
         <v>237</v>
       </c>
       <c r="L36" t="s">
@@ -4765,35 +5178,34 @@
       </c>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A37" s="5" t="s">
+      <c r="A37" t="s">
         <v>176</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" t="s">
         <v>230</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" t="s">
         <v>175</v>
       </c>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5" t="s">
+      <c r="E37" t="s">
         <v>175</v>
       </c>
       <c r="F37" t="s">
         <v>130</v>
       </c>
-      <c r="G37" s="7">
+      <c r="G37" s="6">
         <v>37450</v>
       </c>
       <c r="H37">
         <v>2002</v>
       </c>
-      <c r="I37" s="7" t="s">
+      <c r="I37" s="6" t="s">
         <v>237</v>
       </c>
       <c r="J37" t="s">
         <v>237</v>
       </c>
-      <c r="K37" s="9" t="s">
+      <c r="K37" s="7" t="s">
         <v>237</v>
       </c>
       <c r="L37" t="s">
@@ -4831,35 +5243,34 @@
       </c>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A38" s="5" t="s">
+      <c r="A38" t="s">
         <v>172</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" t="s">
         <v>231</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" t="s">
         <v>183</v>
       </c>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5" t="s">
+      <c r="E38" t="s">
         <v>258</v>
       </c>
       <c r="F38" t="s">
         <v>130</v>
       </c>
-      <c r="G38" s="7">
+      <c r="G38" s="6">
         <v>34379</v>
       </c>
       <c r="H38">
         <v>1994</v>
       </c>
-      <c r="I38" s="7" t="s">
+      <c r="I38" s="6" t="s">
         <v>237</v>
       </c>
       <c r="J38" t="s">
         <v>237</v>
       </c>
-      <c r="K38" s="9" t="s">
+      <c r="K38" s="7" t="s">
         <v>237</v>
       </c>
       <c r="L38" t="s">
@@ -4897,33 +5308,31 @@
       </c>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A39" s="5" t="s">
+      <c r="A39" t="s">
         <v>183</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" t="s">
         <v>231</v>
       </c>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5" t="s">
+      <c r="E39" t="s">
         <v>259</v>
       </c>
       <c r="F39" t="s">
         <v>130</v>
       </c>
-      <c r="G39" s="7">
+      <c r="G39" s="6">
         <v>30960</v>
       </c>
       <c r="H39">
         <v>1984</v>
       </c>
-      <c r="I39" s="7" t="s">
+      <c r="I39" s="6" t="s">
         <v>237</v>
       </c>
       <c r="J39" t="s">
         <v>237</v>
       </c>
-      <c r="K39" s="9" t="s">
+      <c r="K39" s="7" t="s">
         <v>237</v>
       </c>
       <c r="L39" t="s">
@@ -4961,34 +5370,34 @@
       </c>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A40" s="5" t="s">
+      <c r="A40" t="s">
         <v>200</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" t="s">
         <v>231</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" t="s">
         <v>183</v>
       </c>
-      <c r="E40" s="5" t="s">
+      <c r="E40" t="s">
         <v>260</v>
       </c>
       <c r="F40" t="s">
         <v>130</v>
       </c>
-      <c r="G40" s="7">
+      <c r="G40" s="6">
         <v>37899</v>
       </c>
       <c r="H40">
         <v>2003</v>
       </c>
-      <c r="I40" s="7" t="s">
+      <c r="I40" s="6" t="s">
         <v>237</v>
       </c>
       <c r="J40" t="s">
         <v>237</v>
       </c>
-      <c r="K40" s="9" t="s">
+      <c r="K40" s="7" t="s">
         <v>237</v>
       </c>
       <c r="L40" t="s">
@@ -5026,33 +5435,31 @@
       </c>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A41" s="5" t="s">
+      <c r="A41" t="s">
         <v>167</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" t="s">
         <v>232</v>
       </c>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5" t="s">
+      <c r="E41" t="s">
         <v>240</v>
       </c>
       <c r="F41" t="s">
         <v>130</v>
       </c>
-      <c r="G41" s="7">
+      <c r="G41" s="6">
         <v>34937</v>
       </c>
       <c r="H41">
         <v>1995</v>
       </c>
-      <c r="I41" s="7" t="s">
+      <c r="I41" s="6" t="s">
         <v>237</v>
       </c>
       <c r="J41" t="s">
         <v>237</v>
       </c>
-      <c r="K41" s="9" t="s">
+      <c r="K41" s="7" t="s">
         <v>237</v>
       </c>
       <c r="L41" t="s">
@@ -5090,33 +5497,31 @@
       </c>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A42" s="5" t="s">
+      <c r="A42" t="s">
         <v>178</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" t="s">
         <v>232</v>
       </c>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5" t="s">
+      <c r="E42" t="s">
         <v>240</v>
       </c>
       <c r="F42" t="s">
         <v>130</v>
       </c>
-      <c r="G42" s="7">
+      <c r="G42" s="6">
         <v>33217</v>
       </c>
       <c r="H42">
         <v>1990</v>
       </c>
-      <c r="I42" s="7" t="s">
+      <c r="I42" s="6" t="s">
         <v>237</v>
       </c>
       <c r="J42" t="s">
         <v>237</v>
       </c>
-      <c r="K42" s="9" t="s">
+      <c r="K42" s="7" t="s">
         <v>237</v>
       </c>
       <c r="L42" t="s">
@@ -5154,30 +5559,28 @@
       </c>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A43" s="5" t="s">
+      <c r="A43" t="s">
         <v>201</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" t="s">
         <v>233</v>
       </c>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
       <c r="F43" t="s">
         <v>131</v>
       </c>
-      <c r="G43" s="7">
+      <c r="G43" s="6">
         <v>27165</v>
       </c>
       <c r="H43">
         <v>1974</v>
       </c>
-      <c r="I43" s="7">
+      <c r="I43" s="6">
         <v>38684</v>
       </c>
       <c r="J43">
         <v>2005</v>
       </c>
-      <c r="K43" s="9">
+      <c r="K43" s="7">
         <v>31.55890410958904</v>
       </c>
       <c r="L43" t="s">
@@ -5215,32 +5618,31 @@
       </c>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A44" s="5" t="s">
+      <c r="A44" t="s">
         <v>158</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" t="s">
         <v>234</v>
       </c>
-      <c r="C44" s="5"/>
-      <c r="E44" s="5" t="s">
+      <c r="E44" t="s">
         <v>261</v>
       </c>
       <c r="F44" t="s">
         <v>130</v>
       </c>
-      <c r="G44" s="7">
+      <c r="G44" s="6">
         <v>29375</v>
       </c>
       <c r="H44">
         <v>1980</v>
       </c>
-      <c r="I44" s="7" t="s">
+      <c r="I44" s="6" t="s">
         <v>237</v>
       </c>
       <c r="J44" t="s">
         <v>237</v>
       </c>
-      <c r="K44" s="9" t="s">
+      <c r="K44" s="7" t="s">
         <v>237</v>
       </c>
       <c r="L44" t="s">
@@ -5278,37 +5680,37 @@
       </c>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A45" s="5" t="s">
+      <c r="A45" t="s">
         <v>171</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" t="s">
         <v>234</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C45" t="s">
         <v>158</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D45" t="s">
         <v>188</v>
       </c>
-      <c r="E45" s="5" t="s">
+      <c r="E45" t="s">
         <v>262</v>
       </c>
       <c r="F45" t="s">
         <v>130</v>
       </c>
-      <c r="G45" s="7">
+      <c r="G45" s="6">
         <v>38215</v>
       </c>
       <c r="H45">
         <v>2004</v>
       </c>
-      <c r="I45" s="7" t="s">
+      <c r="I45" s="6" t="s">
         <v>237</v>
       </c>
       <c r="J45" t="s">
         <v>237</v>
       </c>
-      <c r="K45" s="9" t="s">
+      <c r="K45" s="7" t="s">
         <v>237</v>
       </c>
       <c r="L45" t="s">
@@ -5346,31 +5748,31 @@
       </c>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A46" s="5" t="s">
+      <c r="A46" t="s">
         <v>188</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" t="s">
         <v>234</v>
       </c>
-      <c r="E46" s="5" t="s">
+      <c r="E46" t="s">
         <v>263</v>
       </c>
       <c r="F46" t="s">
         <v>130</v>
       </c>
-      <c r="G46" s="7">
+      <c r="G46" s="6">
         <v>26249</v>
       </c>
       <c r="H46">
         <v>1971</v>
       </c>
-      <c r="I46" s="7" t="s">
+      <c r="I46" s="6" t="s">
         <v>237</v>
       </c>
       <c r="J46" t="s">
         <v>237</v>
       </c>
-      <c r="K46" s="9" t="s">
+      <c r="K46" s="7" t="s">
         <v>237</v>
       </c>
       <c r="L46" t="s">
@@ -5408,37 +5810,37 @@
       </c>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A47" s="5" t="s">
+      <c r="A47" t="s">
         <v>190</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" t="s">
         <v>234</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C47" t="s">
         <v>158</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D47" t="s">
         <v>188</v>
       </c>
-      <c r="E47" s="5" t="s">
+      <c r="E47" t="s">
         <v>264</v>
       </c>
       <c r="F47" t="s">
         <v>130</v>
       </c>
-      <c r="G47" s="7">
+      <c r="G47" s="6">
         <v>34431</v>
       </c>
       <c r="H47">
         <v>1994</v>
       </c>
-      <c r="I47" s="7" t="s">
+      <c r="I47" s="6" t="s">
         <v>237</v>
       </c>
       <c r="J47" t="s">
         <v>237</v>
       </c>
-      <c r="K47" s="9" t="s">
+      <c r="K47" s="7" t="s">
         <v>237</v>
       </c>
       <c r="L47" t="s">
@@ -5476,31 +5878,31 @@
       </c>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A48" s="5" t="s">
+      <c r="A48" t="s">
         <v>195</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" t="s">
         <v>235</v>
       </c>
-      <c r="E48" s="5" t="s">
+      <c r="E48" t="s">
         <v>195</v>
       </c>
       <c r="F48" t="s">
         <v>130</v>
       </c>
-      <c r="G48" s="7">
+      <c r="G48" s="6">
         <v>29288</v>
       </c>
       <c r="H48">
         <v>1980</v>
       </c>
-      <c r="I48" s="7" t="s">
+      <c r="I48" s="6" t="s">
         <v>237</v>
       </c>
       <c r="J48" t="s">
         <v>237</v>
       </c>
-      <c r="K48" s="9" t="s">
+      <c r="K48" s="7" t="s">
         <v>237</v>
       </c>
       <c r="L48" t="s">
@@ -5538,35 +5940,34 @@
       </c>
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A49" s="5" t="s">
+      <c r="A49" t="s">
         <v>177</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" t="s">
         <v>236</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C49" t="s">
         <v>196</v>
       </c>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5" t="s">
+      <c r="E49" t="s">
         <v>265</v>
       </c>
       <c r="F49" t="s">
         <v>130</v>
       </c>
-      <c r="G49" s="7">
+      <c r="G49" s="6">
         <v>35255</v>
       </c>
       <c r="H49">
         <v>1996</v>
       </c>
-      <c r="I49" s="7" t="s">
+      <c r="I49" s="6" t="s">
         <v>237</v>
       </c>
       <c r="J49" t="s">
         <v>237</v>
       </c>
-      <c r="K49" s="9" t="s">
+      <c r="K49" s="7" t="s">
         <v>237</v>
       </c>
       <c r="L49" t="s">
@@ -5604,31 +6005,31 @@
       </c>
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A50" s="5" t="s">
+      <c r="A50" t="s">
         <v>196</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" t="s">
         <v>236</v>
       </c>
-      <c r="E50" s="5" t="s">
+      <c r="E50" t="s">
         <v>266</v>
       </c>
       <c r="F50" t="s">
         <v>130</v>
       </c>
-      <c r="G50" s="7">
+      <c r="G50" s="6">
         <v>28039</v>
       </c>
       <c r="H50">
         <v>1976</v>
       </c>
-      <c r="I50" s="7" t="s">
+      <c r="I50" s="6" t="s">
         <v>237</v>
       </c>
       <c r="J50" t="s">
         <v>237</v>
       </c>
-      <c r="K50" s="9" t="s">
+      <c r="K50" s="7" t="s">
         <v>237</v>
       </c>
       <c r="L50" t="s">
@@ -5666,34 +6067,34 @@
       </c>
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A51" s="5" t="s">
+      <c r="A51" t="s">
         <v>199</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" t="s">
         <v>236</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C51" t="s">
         <v>196</v>
       </c>
-      <c r="E51" s="5" t="s">
+      <c r="E51" t="s">
         <v>267</v>
       </c>
       <c r="F51" t="s">
         <v>130</v>
       </c>
-      <c r="G51" s="7">
+      <c r="G51" s="6">
         <v>35935</v>
       </c>
       <c r="H51">
         <v>1998</v>
       </c>
-      <c r="I51" s="7" t="s">
+      <c r="I51" s="6" t="s">
         <v>237</v>
       </c>
       <c r="J51" t="s">
         <v>237</v>
       </c>
-      <c r="K51" s="9" t="s">
+      <c r="K51" s="7" t="s">
         <v>237</v>
       </c>
       <c r="L51" t="s">
@@ -5824,10 +6225,10 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" t="s">
         <v>431</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" t="s">
         <v>158</v>
       </c>
       <c r="C2" t="s">
@@ -5859,10 +6260,10 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" t="s">
         <v>432</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" t="s">
         <v>159</v>
       </c>
       <c r="C3" t="s">
@@ -5894,10 +6295,10 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="A4" t="s">
         <v>433</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" t="s">
         <v>160</v>
       </c>
       <c r="C4" t="s">
@@ -5929,10 +6330,10 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+      <c r="A5" t="s">
         <v>434</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" t="s">
         <v>161</v>
       </c>
       <c r="C5" t="s">
@@ -5964,10 +6365,10 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+      <c r="A6" t="s">
         <v>435</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" t="s">
         <v>162</v>
       </c>
       <c r="C6" t="s">
@@ -5999,10 +6400,10 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+      <c r="A7" t="s">
         <v>436</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" t="s">
         <v>163</v>
       </c>
       <c r="C7" t="s">
@@ -6034,10 +6435,10 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+      <c r="A8" t="s">
         <v>437</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" t="s">
         <v>164</v>
       </c>
       <c r="C8" t="s">
@@ -6069,10 +6470,10 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+      <c r="A9" t="s">
         <v>438</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" t="s">
         <v>165</v>
       </c>
       <c r="C9" t="s">
@@ -6104,10 +6505,10 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+      <c r="A10" t="s">
         <v>439</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" t="s">
         <v>166</v>
       </c>
       <c r="C10" t="s">
@@ -6139,10 +6540,10 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+      <c r="A11" t="s">
         <v>440</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" t="s">
         <v>167</v>
       </c>
       <c r="C11" t="s">
@@ -6174,10 +6575,10 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+      <c r="A12" t="s">
         <v>441</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" t="s">
         <v>168</v>
       </c>
       <c r="C12" t="s">
@@ -6209,10 +6610,10 @@
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+      <c r="A13" t="s">
         <v>442</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" t="s">
         <v>169</v>
       </c>
       <c r="C13" t="s">
@@ -6244,10 +6645,10 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
+      <c r="A14" t="s">
         <v>443</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" t="s">
         <v>170</v>
       </c>
       <c r="C14" t="s">
@@ -6279,10 +6680,10 @@
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
+      <c r="A15" t="s">
         <v>444</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" t="s">
         <v>171</v>
       </c>
       <c r="C15" t="s">
@@ -6314,10 +6715,10 @@
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
+      <c r="A16" t="s">
         <v>445</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" t="s">
         <v>172</v>
       </c>
       <c r="C16" t="s">
@@ -6349,10 +6750,10 @@
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
+      <c r="A17" t="s">
         <v>446</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" t="s">
         <v>173</v>
       </c>
       <c r="C17" t="s">
@@ -6384,10 +6785,10 @@
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
+      <c r="A18" t="s">
         <v>447</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" t="s">
         <v>174</v>
       </c>
       <c r="C18" t="s">
@@ -6419,10 +6820,10 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
+      <c r="A19" t="s">
         <v>448</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" t="s">
         <v>175</v>
       </c>
       <c r="C19" t="s">
@@ -6454,10 +6855,10 @@
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
+      <c r="A20" t="s">
         <v>449</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" t="s">
         <v>176</v>
       </c>
       <c r="C20" t="s">
@@ -6489,10 +6890,10 @@
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
+      <c r="A21" t="s">
         <v>450</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" t="s">
         <v>177</v>
       </c>
       <c r="C21" t="s">
@@ -6524,10 +6925,10 @@
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
+      <c r="A22" t="s">
         <v>451</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" t="s">
         <v>178</v>
       </c>
       <c r="C22" t="s">
@@ -6559,10 +6960,10 @@
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
+      <c r="A23" t="s">
         <v>452</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" t="s">
         <v>179</v>
       </c>
       <c r="C23" t="s">
@@ -6594,10 +6995,10 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
+      <c r="A24" t="s">
         <v>453</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" t="s">
         <v>180</v>
       </c>
       <c r="C24" t="s">
@@ -6629,10 +7030,10 @@
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
+      <c r="A25" t="s">
         <v>454</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" t="s">
         <v>181</v>
       </c>
       <c r="C25" t="s">
@@ -6664,10 +7065,10 @@
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
+      <c r="A26" t="s">
         <v>455</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" t="s">
         <v>182</v>
       </c>
       <c r="C26" t="s">
@@ -6699,10 +7100,10 @@
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
+      <c r="A27" t="s">
         <v>456</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" t="s">
         <v>183</v>
       </c>
       <c r="C27" t="s">
@@ -6734,10 +7135,10 @@
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
+      <c r="A28" t="s">
         <v>457</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" t="s">
         <v>184</v>
       </c>
       <c r="C28" t="s">
@@ -6769,10 +7170,10 @@
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
+      <c r="A29" t="s">
         <v>458</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" t="s">
         <v>185</v>
       </c>
       <c r="C29" t="s">
@@ -6804,10 +7205,10 @@
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A30" s="5" t="s">
+      <c r="A30" t="s">
         <v>459</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" t="s">
         <v>186</v>
       </c>
       <c r="C30" t="s">
@@ -6839,10 +7240,10 @@
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="s">
+      <c r="A31" t="s">
         <v>460</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" t="s">
         <v>187</v>
       </c>
       <c r="C31" t="s">
@@ -6874,10 +7275,10 @@
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A32" s="5" t="s">
+      <c r="A32" t="s">
         <v>461</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" t="s">
         <v>188</v>
       </c>
       <c r="C32" t="s">
@@ -6900,10 +7301,10 @@
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A33" s="5" t="s">
+      <c r="A33" t="s">
         <v>462</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" t="s">
         <v>189</v>
       </c>
       <c r="C33" t="s">
@@ -6926,10 +7327,10 @@
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A34" s="5" t="s">
+      <c r="A34" t="s">
         <v>463</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" t="s">
         <v>190</v>
       </c>
       <c r="C34" t="s">
@@ -6952,10 +7353,10 @@
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A35" s="5" t="s">
+      <c r="A35" t="s">
         <v>464</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" t="s">
         <v>191</v>
       </c>
       <c r="C35" t="s">
@@ -6978,10 +7379,10 @@
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A36" s="5" t="s">
+      <c r="A36" t="s">
         <v>465</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" t="s">
         <v>192</v>
       </c>
       <c r="C36" t="s">
@@ -7004,10 +7405,10 @@
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A37" s="5" t="s">
+      <c r="A37" t="s">
         <v>466</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" t="s">
         <v>193</v>
       </c>
       <c r="C37" t="s">
@@ -7030,10 +7431,10 @@
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A38" s="5" t="s">
+      <c r="A38" t="s">
         <v>467</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" t="s">
         <v>194</v>
       </c>
       <c r="C38" t="s">
@@ -7056,10 +7457,10 @@
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A39" s="5" t="s">
+      <c r="A39" t="s">
         <v>468</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" t="s">
         <v>195</v>
       </c>
       <c r="C39" t="s">
@@ -7082,10 +7483,10 @@
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A40" s="5" t="s">
+      <c r="A40" t="s">
         <v>469</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" t="s">
         <v>196</v>
       </c>
       <c r="C40" t="s">
@@ -7108,10 +7509,10 @@
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A41" s="5" t="s">
+      <c r="A41" t="s">
         <v>470</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" t="s">
         <v>197</v>
       </c>
       <c r="C41" t="s">
@@ -7134,10 +7535,10 @@
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A42" s="5" t="s">
+      <c r="A42" t="s">
         <v>471</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" t="s">
         <v>198</v>
       </c>
       <c r="C42" t="s">
@@ -7160,10 +7561,10 @@
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A43" s="5" t="s">
+      <c r="A43" t="s">
         <v>472</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" t="s">
         <v>199</v>
       </c>
       <c r="C43" t="s">
@@ -7186,10 +7587,10 @@
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A44" s="5" t="s">
+      <c r="A44" t="s">
         <v>473</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" t="s">
         <v>200</v>
       </c>
       <c r="C44" t="s">
@@ -7212,10 +7613,10 @@
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A45" s="5" t="s">
+      <c r="A45" t="s">
         <v>474</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" t="s">
         <v>201</v>
       </c>
       <c r="C45" t="s">
@@ -7238,10 +7639,10 @@
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A46" s="5" t="s">
+      <c r="A46" t="s">
         <v>475</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" t="s">
         <v>202</v>
       </c>
       <c r="C46" t="s">
@@ -7264,10 +7665,10 @@
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A47" s="5" t="s">
+      <c r="A47" t="s">
         <v>476</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" t="s">
         <v>203</v>
       </c>
       <c r="C47" t="s">
@@ -7290,10 +7691,10 @@
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A48" s="5" t="s">
+      <c r="A48" t="s">
         <v>477</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" t="s">
         <v>204</v>
       </c>
       <c r="C48" t="s">
@@ -7316,10 +7717,10 @@
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A49" s="5" t="s">
+      <c r="A49" t="s">
         <v>478</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" t="s">
         <v>205</v>
       </c>
       <c r="C49" t="s">
@@ -7342,10 +7743,10 @@
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A50" s="5" t="s">
+      <c r="A50" t="s">
         <v>479</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" t="s">
         <v>206</v>
       </c>
       <c r="C50" t="s">
@@ -7368,10 +7769,10 @@
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A51" s="5" t="s">
+      <c r="A51" t="s">
         <v>480</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" t="s">
         <v>207</v>
       </c>
       <c r="C51" t="s">
@@ -7505,7 +7906,7 @@
       <c r="A2" s="4" t="s">
         <v>481</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" t="s">
         <v>158</v>
       </c>
       <c r="C2" t="b">
@@ -7543,7 +7944,7 @@
       <c r="A3" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" t="s">
         <v>159</v>
       </c>
       <c r="C3" t="b">
@@ -7581,7 +7982,7 @@
       <c r="A4" s="4" t="s">
         <v>483</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" t="s">
         <v>160</v>
       </c>
       <c r="C4" t="b">
@@ -7619,7 +8020,7 @@
       <c r="A5" s="4" t="s">
         <v>484</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" t="s">
         <v>161</v>
       </c>
       <c r="C5" t="b">
@@ -7657,7 +8058,7 @@
       <c r="A6" s="4" t="s">
         <v>485</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" t="s">
         <v>162</v>
       </c>
       <c r="C6" t="b">
@@ -7695,7 +8096,7 @@
       <c r="A7" s="4" t="s">
         <v>486</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" t="s">
         <v>163</v>
       </c>
       <c r="C7" t="b">
@@ -7733,7 +8134,7 @@
       <c r="A8" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" t="s">
         <v>164</v>
       </c>
       <c r="C8" t="b">
@@ -7771,7 +8172,7 @@
       <c r="A9" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" t="s">
         <v>165</v>
       </c>
       <c r="C9" t="b">
@@ -7809,7 +8210,7 @@
       <c r="A10" s="4" t="s">
         <v>489</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" t="s">
         <v>166</v>
       </c>
       <c r="C10" t="b">
@@ -7847,7 +8248,7 @@
       <c r="A11" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" t="s">
         <v>167</v>
       </c>
       <c r="C11" t="b">
@@ -7885,7 +8286,7 @@
       <c r="A12" s="4" t="s">
         <v>491</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" t="s">
         <v>168</v>
       </c>
       <c r="C12" t="b">
@@ -7923,7 +8324,7 @@
       <c r="A13" s="4" t="s">
         <v>492</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" t="s">
         <v>169</v>
       </c>
       <c r="C13" t="b">
@@ -7961,7 +8362,7 @@
       <c r="A14" s="4" t="s">
         <v>493</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" t="s">
         <v>170</v>
       </c>
       <c r="C14" t="b">
@@ -7999,7 +8400,7 @@
       <c r="A15" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" t="s">
         <v>171</v>
       </c>
       <c r="C15" t="b">
@@ -8037,7 +8438,7 @@
       <c r="A16" s="4" t="s">
         <v>495</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" t="s">
         <v>172</v>
       </c>
       <c r="C16" t="b">
@@ -8075,7 +8476,7 @@
       <c r="A17" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" t="s">
         <v>173</v>
       </c>
       <c r="C17" t="b">
@@ -8113,7 +8514,7 @@
       <c r="A18" s="4" t="s">
         <v>497</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" t="s">
         <v>174</v>
       </c>
       <c r="C18" t="b">
@@ -8151,7 +8552,7 @@
       <c r="A19" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" t="s">
         <v>175</v>
       </c>
       <c r="C19" t="b">
@@ -8189,7 +8590,7 @@
       <c r="A20" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" t="s">
         <v>176</v>
       </c>
       <c r="C20" t="b">
@@ -8227,7 +8628,7 @@
       <c r="A21" s="4" t="s">
         <v>500</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" t="s">
         <v>177</v>
       </c>
       <c r="C21" t="b">
@@ -8265,7 +8666,7 @@
       <c r="A22" s="4" t="s">
         <v>501</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" t="s">
         <v>178</v>
       </c>
       <c r="C22" t="b">
@@ -8303,7 +8704,7 @@
       <c r="A23" s="4" t="s">
         <v>502</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" t="s">
         <v>179</v>
       </c>
       <c r="C23" t="b">
@@ -8341,7 +8742,7 @@
       <c r="A24" s="4" t="s">
         <v>503</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" t="s">
         <v>180</v>
       </c>
       <c r="C24" t="b">
@@ -8379,7 +8780,7 @@
       <c r="A25" s="4" t="s">
         <v>504</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" t="s">
         <v>181</v>
       </c>
       <c r="C25" t="b">
@@ -8417,7 +8818,7 @@
       <c r="A26" s="4" t="s">
         <v>505</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" t="s">
         <v>182</v>
       </c>
       <c r="C26" t="b">
@@ -8455,7 +8856,7 @@
       <c r="A27" s="4" t="s">
         <v>506</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" t="s">
         <v>183</v>
       </c>
       <c r="C27" t="b">
@@ -8493,7 +8894,7 @@
       <c r="A28" s="4" t="s">
         <v>507</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" t="s">
         <v>184</v>
       </c>
       <c r="C28" t="b">
@@ -8531,7 +8932,7 @@
       <c r="A29" s="4" t="s">
         <v>508</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" t="s">
         <v>185</v>
       </c>
       <c r="C29" t="b">
@@ -8569,7 +8970,7 @@
       <c r="A30" s="4" t="s">
         <v>509</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" t="s">
         <v>186</v>
       </c>
       <c r="C30" t="b">
@@ -8607,7 +9008,7 @@
       <c r="A31" s="4" t="s">
         <v>510</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" t="s">
         <v>187</v>
       </c>
       <c r="C31" t="b">
@@ -8645,7 +9046,7 @@
       <c r="A32" s="4" t="s">
         <v>511</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" t="s">
         <v>188</v>
       </c>
       <c r="C32" t="b">
@@ -8671,7 +9072,7 @@
       <c r="A33" s="4" t="s">
         <v>512</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" t="s">
         <v>189</v>
       </c>
       <c r="C33" t="b">
@@ -8700,7 +9101,7 @@
       <c r="A34" s="4" t="s">
         <v>513</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" t="s">
         <v>190</v>
       </c>
       <c r="C34" t="b">
@@ -8729,7 +9130,7 @@
       <c r="A35" s="4" t="s">
         <v>514</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" t="s">
         <v>191</v>
       </c>
       <c r="C35" t="b">
@@ -8764,7 +9165,7 @@
       <c r="A36" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" t="s">
         <v>192</v>
       </c>
       <c r="C36" t="b">
@@ -8790,7 +9191,7 @@
       <c r="A37" s="4" t="s">
         <v>516</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" t="s">
         <v>193</v>
       </c>
       <c r="C37" t="b">
@@ -8816,7 +9217,7 @@
       <c r="A38" s="4" t="s">
         <v>517</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" t="s">
         <v>194</v>
       </c>
       <c r="C38" t="b">
@@ -8845,7 +9246,7 @@
       <c r="A39" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" t="s">
         <v>195</v>
       </c>
       <c r="C39" t="b">
@@ -8871,7 +9272,7 @@
       <c r="A40" s="4" t="s">
         <v>519</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" t="s">
         <v>196</v>
       </c>
       <c r="C40" t="b">
@@ -8906,7 +9307,7 @@
       <c r="A41" s="4" t="s">
         <v>520</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" t="s">
         <v>197</v>
       </c>
       <c r="C41" t="b">
@@ -8932,7 +9333,7 @@
       <c r="A42" s="4" t="s">
         <v>521</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" t="s">
         <v>198</v>
       </c>
       <c r="C42" t="b">
@@ -8964,7 +9365,7 @@
       <c r="A43" s="4" t="s">
         <v>522</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" t="s">
         <v>199</v>
       </c>
       <c r="C43" t="b">
@@ -8990,7 +9391,7 @@
       <c r="A44" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" t="s">
         <v>200</v>
       </c>
       <c r="C44" t="b">
@@ -9016,7 +9417,7 @@
       <c r="A45" s="4" t="s">
         <v>524</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" t="s">
         <v>201</v>
       </c>
       <c r="C45" t="b">
@@ -9048,7 +9449,7 @@
       <c r="A46" s="4" t="s">
         <v>525</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" t="s">
         <v>202</v>
       </c>
       <c r="C46" t="b">
@@ -9077,7 +9478,7 @@
       <c r="A47" s="4" t="s">
         <v>526</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" t="s">
         <v>203</v>
       </c>
       <c r="C47" t="b">
@@ -9109,7 +9510,7 @@
       <c r="A48" s="4" t="s">
         <v>527</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" t="s">
         <v>204</v>
       </c>
       <c r="C48" t="b">
@@ -9135,7 +9536,7 @@
       <c r="A49" s="4" t="s">
         <v>528</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" t="s">
         <v>205</v>
       </c>
       <c r="C49" t="b">
@@ -9161,7 +9562,7 @@
       <c r="A50" s="4" t="s">
         <v>529</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" t="s">
         <v>206</v>
       </c>
       <c r="C50" t="b">
@@ -9187,7 +9588,7 @@
       <c r="A51" s="4" t="s">
         <v>530</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" t="s">
         <v>207</v>
       </c>
       <c r="C51" t="b">
@@ -9222,8 +9623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E48B682-4539-B84F-A627-D10C87B9BED7}">
   <dimension ref="A1:T51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2:T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9233,7 +9634,7 @@
     <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.6640625" customWidth="1"/>
     <col min="5" max="5" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="29.5" bestFit="1" customWidth="1"/>
@@ -9265,7 +9666,7 @@
       <c r="E1" t="s">
         <v>147</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" t="s">
         <v>37</v>
       </c>
       <c r="G1" t="s">
@@ -9312,10 +9713,10 @@
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" t="s">
         <v>268</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" t="s">
         <v>158</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -9351,10 +9752,10 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" t="s">
         <v>269</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" t="s">
         <v>159</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -9390,10 +9791,10 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="A4" t="s">
         <v>270</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" t="s">
         <v>160</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -9429,10 +9830,10 @@
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+      <c r="A5" t="s">
         <v>271</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" t="s">
         <v>161</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -9468,10 +9869,10 @@
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+      <c r="A6" t="s">
         <v>272</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" t="s">
         <v>162</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -9507,10 +9908,10 @@
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+      <c r="A7" t="s">
         <v>273</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" t="s">
         <v>163</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -9546,10 +9947,10 @@
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+      <c r="A8" t="s">
         <v>274</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" t="s">
         <v>164</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -9585,10 +9986,10 @@
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+      <c r="A9" t="s">
         <v>275</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" t="s">
         <v>165</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -9624,10 +10025,10 @@
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+      <c r="A10" t="s">
         <v>276</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" t="s">
         <v>166</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -9663,10 +10064,10 @@
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+      <c r="A11" t="s">
         <v>277</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" t="s">
         <v>167</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -9702,10 +10103,10 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+      <c r="A12" t="s">
         <v>278</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" t="s">
         <v>168</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -9741,10 +10142,10 @@
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+      <c r="A13" t="s">
         <v>279</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" t="s">
         <v>169</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -9780,10 +10181,10 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
+      <c r="A14" t="s">
         <v>280</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" t="s">
         <v>170</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -9819,10 +10220,10 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
+      <c r="A15" t="s">
         <v>281</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" t="s">
         <v>171</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -9858,10 +10259,10 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
+      <c r="A16" t="s">
         <v>282</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" t="s">
         <v>172</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -9897,10 +10298,10 @@
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
+      <c r="A17" t="s">
         <v>283</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" t="s">
         <v>173</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -9936,10 +10337,10 @@
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
+      <c r="A18" t="s">
         <v>284</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" t="s">
         <v>174</v>
       </c>
       <c r="C18" s="4" t="s">
@@ -9975,10 +10376,10 @@
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
+      <c r="A19" t="s">
         <v>285</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" t="s">
         <v>175</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -10014,10 +10415,10 @@
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
+      <c r="A20" t="s">
         <v>286</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" t="s">
         <v>176</v>
       </c>
       <c r="C20" s="4" t="s">
@@ -10053,10 +10454,10 @@
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
+      <c r="A21" t="s">
         <v>287</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" t="s">
         <v>177</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -10092,10 +10493,10 @@
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
+      <c r="A22" t="s">
         <v>288</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" t="s">
         <v>178</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -10131,10 +10532,10 @@
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
+      <c r="A23" t="s">
         <v>289</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" t="s">
         <v>179</v>
       </c>
       <c r="C23" s="4" t="s">
@@ -10170,10 +10571,10 @@
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
+      <c r="A24" t="s">
         <v>290</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" t="s">
         <v>180</v>
       </c>
       <c r="C24" s="4" t="s">
@@ -10209,10 +10610,10 @@
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
+      <c r="A25" t="s">
         <v>291</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" t="s">
         <v>181</v>
       </c>
       <c r="C25" s="4" t="s">
@@ -10248,10 +10649,10 @@
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
+      <c r="A26" t="s">
         <v>292</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" t="s">
         <v>182</v>
       </c>
       <c r="C26" s="4" t="s">
@@ -10287,10 +10688,10 @@
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
+      <c r="A27" t="s">
         <v>293</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" t="s">
         <v>183</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -10326,10 +10727,10 @@
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
+      <c r="A28" t="s">
         <v>294</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" t="s">
         <v>184</v>
       </c>
       <c r="C28" s="4" t="s">
@@ -10365,10 +10766,10 @@
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
+      <c r="A29" t="s">
         <v>295</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" t="s">
         <v>185</v>
       </c>
       <c r="C29" s="4" t="s">
@@ -10404,10 +10805,10 @@
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A30" s="5" t="s">
+      <c r="A30" t="s">
         <v>296</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" t="s">
         <v>186</v>
       </c>
       <c r="C30" s="4" t="s">
@@ -10443,10 +10844,10 @@
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="s">
+      <c r="A31" t="s">
         <v>297</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" t="s">
         <v>187</v>
       </c>
       <c r="C31" s="4" t="s">
@@ -10482,10 +10883,10 @@
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A32" s="5" t="s">
+      <c r="A32" t="s">
         <v>298</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" t="s">
         <v>188</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -10494,7 +10895,7 @@
       <c r="D32" t="s">
         <v>151</v>
       </c>
-      <c r="E32" s="7"/>
+      <c r="E32" s="6"/>
       <c r="F32" s="1"/>
       <c r="J32" t="s">
         <v>1</v>
@@ -10522,10 +10923,10 @@
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A33" s="5" t="s">
+      <c r="A33" t="s">
         <v>299</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" t="s">
         <v>189</v>
       </c>
       <c r="C33" s="4" t="s">
@@ -10534,7 +10935,7 @@
       <c r="D33" t="s">
         <v>151</v>
       </c>
-      <c r="E33" s="7"/>
+      <c r="E33" s="6"/>
       <c r="F33" s="1"/>
       <c r="J33" t="s">
         <v>1</v>
@@ -10562,10 +10963,10 @@
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A34" s="5" t="s">
+      <c r="A34" t="s">
         <v>300</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" t="s">
         <v>190</v>
       </c>
       <c r="C34" s="4" t="s">
@@ -10574,7 +10975,7 @@
       <c r="D34" t="s">
         <v>151</v>
       </c>
-      <c r="E34" s="7"/>
+      <c r="E34" s="6"/>
       <c r="F34" s="1"/>
       <c r="J34" t="s">
         <v>1</v>
@@ -10602,10 +11003,10 @@
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A35" s="5" t="s">
+      <c r="A35" t="s">
         <v>301</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" t="s">
         <v>191</v>
       </c>
       <c r="C35" s="4" t="s">
@@ -10614,7 +11015,7 @@
       <c r="D35" t="s">
         <v>152</v>
       </c>
-      <c r="E35" s="7"/>
+      <c r="E35" s="6"/>
       <c r="F35" s="1"/>
       <c r="J35" t="s">
         <v>1</v>
@@ -10642,10 +11043,10 @@
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A36" s="5" t="s">
+      <c r="A36" t="s">
         <v>302</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" t="s">
         <v>192</v>
       </c>
       <c r="C36" s="4" t="s">
@@ -10654,7 +11055,7 @@
       <c r="D36" t="s">
         <v>151</v>
       </c>
-      <c r="E36" s="7"/>
+      <c r="E36" s="6"/>
       <c r="F36" s="1"/>
       <c r="J36" t="s">
         <v>1</v>
@@ -10682,10 +11083,10 @@
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A37" s="5" t="s">
+      <c r="A37" t="s">
         <v>303</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" t="s">
         <v>193</v>
       </c>
       <c r="C37" s="4" t="s">
@@ -10694,7 +11095,7 @@
       <c r="D37" t="s">
         <v>151</v>
       </c>
-      <c r="E37" s="7"/>
+      <c r="E37" s="6"/>
       <c r="F37" s="1"/>
       <c r="J37" t="s">
         <v>1</v>
@@ -10722,10 +11123,10 @@
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A38" s="5" t="s">
+      <c r="A38" t="s">
         <v>304</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" t="s">
         <v>194</v>
       </c>
       <c r="C38" s="4" t="s">
@@ -10734,7 +11135,7 @@
       <c r="D38" t="s">
         <v>151</v>
       </c>
-      <c r="E38" s="7"/>
+      <c r="E38" s="6"/>
       <c r="F38" s="1"/>
       <c r="J38" t="s">
         <v>1</v>
@@ -10762,10 +11163,10 @@
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A39" s="5" t="s">
+      <c r="A39" t="s">
         <v>305</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" t="s">
         <v>195</v>
       </c>
       <c r="C39" s="4" t="s">
@@ -10774,7 +11175,7 @@
       <c r="D39" t="s">
         <v>151</v>
       </c>
-      <c r="E39" s="7"/>
+      <c r="E39" s="6"/>
       <c r="F39" s="1"/>
       <c r="J39" t="s">
         <v>1</v>
@@ -10802,10 +11203,10 @@
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A40" s="5" t="s">
+      <c r="A40" t="s">
         <v>306</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" t="s">
         <v>196</v>
       </c>
       <c r="C40" s="4" t="s">
@@ -10814,7 +11215,7 @@
       <c r="D40" t="s">
         <v>151</v>
       </c>
-      <c r="E40" s="7"/>
+      <c r="E40" s="6"/>
       <c r="F40" s="1"/>
       <c r="J40" t="s">
         <v>1</v>
@@ -10842,10 +11243,10 @@
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A41" s="5" t="s">
+      <c r="A41" t="s">
         <v>307</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" t="s">
         <v>197</v>
       </c>
       <c r="C41" s="4" t="s">
@@ -10854,7 +11255,7 @@
       <c r="D41" t="s">
         <v>151</v>
       </c>
-      <c r="E41" s="7"/>
+      <c r="E41" s="6"/>
       <c r="F41" s="1"/>
       <c r="J41" t="s">
         <v>1</v>
@@ -10882,10 +11283,10 @@
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A42" s="5" t="s">
+      <c r="A42" t="s">
         <v>308</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" t="s">
         <v>198</v>
       </c>
       <c r="C42" s="4" t="s">
@@ -10894,7 +11295,7 @@
       <c r="D42" t="s">
         <v>152</v>
       </c>
-      <c r="E42" s="7"/>
+      <c r="E42" s="6"/>
       <c r="F42" s="1"/>
       <c r="J42" t="s">
         <v>1</v>
@@ -10922,10 +11323,10 @@
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A43" s="5" t="s">
+      <c r="A43" t="s">
         <v>309</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" t="s">
         <v>199</v>
       </c>
       <c r="C43" s="4" t="s">
@@ -10934,7 +11335,7 @@
       <c r="D43" t="s">
         <v>151</v>
       </c>
-      <c r="E43" s="7"/>
+      <c r="E43" s="6"/>
       <c r="F43" s="1"/>
       <c r="J43" t="s">
         <v>1</v>
@@ -10962,10 +11363,10 @@
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A44" s="5" t="s">
+      <c r="A44" t="s">
         <v>310</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" t="s">
         <v>200</v>
       </c>
       <c r="C44" s="4" t="s">
@@ -10974,7 +11375,7 @@
       <c r="D44" t="s">
         <v>151</v>
       </c>
-      <c r="E44" s="7"/>
+      <c r="E44" s="6"/>
       <c r="F44" s="1"/>
       <c r="J44" t="s">
         <v>1</v>
@@ -11002,10 +11403,10 @@
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A45" s="5" t="s">
+      <c r="A45" t="s">
         <v>311</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" t="s">
         <v>201</v>
       </c>
       <c r="C45" s="4" t="s">
@@ -11014,7 +11415,7 @@
       <c r="D45" t="s">
         <v>151</v>
       </c>
-      <c r="E45" s="7"/>
+      <c r="E45" s="6"/>
       <c r="F45" s="1"/>
       <c r="J45" t="s">
         <v>1</v>
@@ -11042,10 +11443,10 @@
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A46" s="5" t="s">
+      <c r="A46" t="s">
         <v>312</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" t="s">
         <v>202</v>
       </c>
       <c r="C46" s="4" t="s">
@@ -11054,7 +11455,7 @@
       <c r="D46" t="s">
         <v>152</v>
       </c>
-      <c r="E46" s="7"/>
+      <c r="E46" s="6"/>
       <c r="F46" s="1"/>
       <c r="J46" t="s">
         <v>1</v>
@@ -11082,10 +11483,10 @@
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A47" s="5" t="s">
+      <c r="A47" t="s">
         <v>313</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" t="s">
         <v>203</v>
       </c>
       <c r="C47" s="4" t="s">
@@ -11094,7 +11495,7 @@
       <c r="D47" t="s">
         <v>151</v>
       </c>
-      <c r="E47" s="7"/>
+      <c r="E47" s="6"/>
       <c r="F47" s="1"/>
       <c r="J47" t="s">
         <v>1</v>
@@ -11122,10 +11523,10 @@
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A48" s="5" t="s">
+      <c r="A48" t="s">
         <v>314</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" t="s">
         <v>204</v>
       </c>
       <c r="C48" s="4" t="s">
@@ -11134,7 +11535,7 @@
       <c r="D48" t="s">
         <v>151</v>
       </c>
-      <c r="E48" s="7"/>
+      <c r="E48" s="6"/>
       <c r="F48" s="1"/>
       <c r="J48" t="s">
         <v>1</v>
@@ -11162,10 +11563,10 @@
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A49" s="5" t="s">
+      <c r="A49" t="s">
         <v>315</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" t="s">
         <v>205</v>
       </c>
       <c r="C49" s="4" t="s">
@@ -11174,7 +11575,7 @@
       <c r="D49" t="s">
         <v>152</v>
       </c>
-      <c r="E49" s="7"/>
+      <c r="E49" s="6"/>
       <c r="F49" s="1"/>
       <c r="J49" t="s">
         <v>1</v>
@@ -11202,10 +11603,10 @@
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A50" s="5" t="s">
+      <c r="A50" t="s">
         <v>316</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" t="s">
         <v>206</v>
       </c>
       <c r="C50" s="4" t="s">
@@ -11214,7 +11615,7 @@
       <c r="D50" t="s">
         <v>151</v>
       </c>
-      <c r="E50" s="7"/>
+      <c r="E50" s="6"/>
       <c r="F50" s="1"/>
       <c r="J50" t="s">
         <v>1</v>
@@ -11242,10 +11643,10 @@
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A51" s="5" t="s">
+      <c r="A51" t="s">
         <v>317</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" t="s">
         <v>207</v>
       </c>
       <c r="C51" s="4" t="s">
@@ -11254,7 +11655,7 @@
       <c r="D51" t="s">
         <v>151</v>
       </c>
-      <c r="E51" s="7"/>
+      <c r="E51" s="6"/>
       <c r="F51" s="1"/>
       <c r="J51" t="s">
         <v>1</v>
@@ -11318,7 +11719,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>534</v>
       </c>
       <c r="B1" t="s">
         <v>55</v>
@@ -11367,10 +11768,10 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" t="s">
         <v>318</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" t="s">
         <v>268</v>
       </c>
       <c r="D2" t="s">
@@ -11399,10 +11800,10 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" t="s">
         <v>319</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" t="s">
         <v>269</v>
       </c>
       <c r="D3" t="s">
@@ -11431,10 +11832,10 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="A4" t="s">
         <v>320</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" t="s">
         <v>270</v>
       </c>
       <c r="D4" t="s">
@@ -11463,10 +11864,10 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+      <c r="A5" t="s">
         <v>321</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" t="s">
         <v>271</v>
       </c>
       <c r="D5" t="s">
@@ -11495,10 +11896,10 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+      <c r="A6" t="s">
         <v>322</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" t="s">
         <v>272</v>
       </c>
       <c r="D6" t="s">
@@ -11527,10 +11928,10 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+      <c r="A7" t="s">
         <v>323</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" t="s">
         <v>273</v>
       </c>
       <c r="D7" t="s">
@@ -11559,10 +11960,10 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+      <c r="A8" t="s">
         <v>324</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" t="s">
         <v>274</v>
       </c>
       <c r="D8" t="s">
@@ -11591,10 +11992,10 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+      <c r="A9" t="s">
         <v>325</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" t="s">
         <v>275</v>
       </c>
       <c r="D9" t="s">
@@ -11623,10 +12024,10 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+      <c r="A10" t="s">
         <v>326</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" t="s">
         <v>276</v>
       </c>
       <c r="D10" t="s">
@@ -11655,10 +12056,10 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+      <c r="A11" t="s">
         <v>327</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" t="s">
         <v>277</v>
       </c>
       <c r="D11" t="s">
@@ -11687,10 +12088,10 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+      <c r="A12" t="s">
         <v>328</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" t="s">
         <v>278</v>
       </c>
       <c r="D12" t="s">
@@ -11719,10 +12120,10 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+      <c r="A13" t="s">
         <v>329</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" t="s">
         <v>279</v>
       </c>
       <c r="D13" t="s">
@@ -11751,10 +12152,10 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
+      <c r="A14" t="s">
         <v>330</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" t="s">
         <v>280</v>
       </c>
       <c r="D14" t="s">
@@ -11783,10 +12184,10 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
+      <c r="A15" t="s">
         <v>331</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" t="s">
         <v>281</v>
       </c>
       <c r="D15" t="s">
@@ -11815,10 +12216,10 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
+      <c r="A16" t="s">
         <v>332</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" t="s">
         <v>282</v>
       </c>
       <c r="D16" t="s">
@@ -11847,10 +12248,10 @@
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
+      <c r="A17" t="s">
         <v>333</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" t="s">
         <v>283</v>
       </c>
       <c r="D17" t="s">
@@ -11879,10 +12280,10 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
+      <c r="A18" t="s">
         <v>334</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" t="s">
         <v>284</v>
       </c>
       <c r="D18" t="s">
@@ -11911,10 +12312,10 @@
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
+      <c r="A19" t="s">
         <v>335</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" t="s">
         <v>285</v>
       </c>
       <c r="D19" t="s">
@@ -11943,10 +12344,10 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
+      <c r="A20" t="s">
         <v>336</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" t="s">
         <v>286</v>
       </c>
       <c r="D20" t="s">
@@ -11975,10 +12376,10 @@
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
+      <c r="A21" t="s">
         <v>337</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" t="s">
         <v>287</v>
       </c>
       <c r="D21" t="s">
@@ -12007,10 +12408,10 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
+      <c r="A22" t="s">
         <v>338</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" t="s">
         <v>288</v>
       </c>
       <c r="D22" t="s">
@@ -12039,10 +12440,10 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
+      <c r="A23" t="s">
         <v>339</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" t="s">
         <v>289</v>
       </c>
       <c r="D23" t="s">
@@ -12071,10 +12472,10 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
+      <c r="A24" t="s">
         <v>340</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" t="s">
         <v>290</v>
       </c>
       <c r="D24" t="s">
@@ -12103,10 +12504,10 @@
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
+      <c r="A25" t="s">
         <v>341</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" t="s">
         <v>291</v>
       </c>
       <c r="D25" t="s">
@@ -12135,10 +12536,10 @@
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
+      <c r="A26" t="s">
         <v>342</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" t="s">
         <v>292</v>
       </c>
       <c r="D26" t="s">
@@ -12167,10 +12568,10 @@
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
+      <c r="A27" t="s">
         <v>343</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" t="s">
         <v>293</v>
       </c>
       <c r="D27" t="s">
@@ -12199,10 +12600,10 @@
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
+      <c r="A28" t="s">
         <v>344</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" t="s">
         <v>294</v>
       </c>
       <c r="D28" t="s">
@@ -12231,10 +12632,10 @@
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
+      <c r="A29" t="s">
         <v>345</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" t="s">
         <v>295</v>
       </c>
       <c r="D29" t="s">
@@ -12263,10 +12664,10 @@
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" s="5" t="s">
+      <c r="A30" t="s">
         <v>346</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" t="s">
         <v>296</v>
       </c>
       <c r="D30" t="s">
@@ -12295,10 +12696,10 @@
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="s">
+      <c r="A31" t="s">
         <v>347</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" t="s">
         <v>297</v>
       </c>
       <c r="D31" t="s">
@@ -12327,10 +12728,10 @@
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="5" t="s">
+      <c r="A32" t="s">
         <v>348</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" t="s">
         <v>298</v>
       </c>
       <c r="D32" t="s">
@@ -12356,10 +12757,10 @@
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="5" t="s">
+      <c r="A33" t="s">
         <v>349</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" t="s">
         <v>299</v>
       </c>
       <c r="D33" t="s">
@@ -12385,10 +12786,10 @@
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A34" s="5" t="s">
+      <c r="A34" t="s">
         <v>350</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" t="s">
         <v>300</v>
       </c>
       <c r="D34" t="s">
@@ -12414,10 +12815,10 @@
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A35" s="5" t="s">
+      <c r="A35" t="s">
         <v>351</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" t="s">
         <v>301</v>
       </c>
       <c r="D35" t="s">
@@ -12443,10 +12844,10 @@
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A36" s="5" t="s">
+      <c r="A36" t="s">
         <v>352</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" t="s">
         <v>302</v>
       </c>
       <c r="D36" t="s">
@@ -12472,10 +12873,10 @@
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A37" s="5" t="s">
+      <c r="A37" t="s">
         <v>353</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" t="s">
         <v>303</v>
       </c>
       <c r="D37" t="s">
@@ -12501,10 +12902,10 @@
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="5" t="s">
+      <c r="A38" t="s">
         <v>354</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" t="s">
         <v>304</v>
       </c>
       <c r="D38" t="s">
@@ -12530,10 +12931,10 @@
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A39" s="5" t="s">
+      <c r="A39" t="s">
         <v>355</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" t="s">
         <v>305</v>
       </c>
       <c r="D39" t="s">
@@ -12559,10 +12960,10 @@
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A40" s="5" t="s">
+      <c r="A40" t="s">
         <v>356</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" t="s">
         <v>306</v>
       </c>
       <c r="D40" t="s">
@@ -12588,10 +12989,10 @@
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A41" s="5" t="s">
+      <c r="A41" t="s">
         <v>357</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" t="s">
         <v>307</v>
       </c>
       <c r="D41" t="s">
@@ -12617,10 +13018,10 @@
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A42" s="5" t="s">
+      <c r="A42" t="s">
         <v>358</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" t="s">
         <v>308</v>
       </c>
       <c r="D42" t="s">
@@ -12646,10 +13047,10 @@
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A43" s="5" t="s">
+      <c r="A43" t="s">
         <v>359</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" t="s">
         <v>309</v>
       </c>
       <c r="D43" t="s">
@@ -12675,10 +13076,10 @@
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A44" s="5" t="s">
+      <c r="A44" t="s">
         <v>360</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" t="s">
         <v>310</v>
       </c>
       <c r="D44" t="s">
@@ -12704,10 +13105,10 @@
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A45" s="5" t="s">
+      <c r="A45" t="s">
         <v>361</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" t="s">
         <v>311</v>
       </c>
       <c r="D45" t="s">
@@ -12733,10 +13134,10 @@
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A46" s="5" t="s">
+      <c r="A46" t="s">
         <v>362</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" t="s">
         <v>312</v>
       </c>
       <c r="D46" t="s">
@@ -12762,10 +13163,10 @@
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A47" s="5" t="s">
+      <c r="A47" t="s">
         <v>363</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" t="s">
         <v>313</v>
       </c>
       <c r="D47" t="s">
@@ -12791,10 +13192,10 @@
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A48" s="5" t="s">
+      <c r="A48" t="s">
         <v>364</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" t="s">
         <v>314</v>
       </c>
       <c r="D48" t="s">
@@ -12820,10 +13221,10 @@
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A49" s="5" t="s">
+      <c r="A49" t="s">
         <v>365</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" t="s">
         <v>315</v>
       </c>
       <c r="D49" t="s">
@@ -12849,10 +13250,10 @@
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A50" s="5" t="s">
+      <c r="A50" t="s">
         <v>366</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" t="s">
         <v>316</v>
       </c>
       <c r="D50" t="s">
@@ -12878,10 +13279,10 @@
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51" s="5" t="s">
+      <c r="A51" t="s">
         <v>367</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" t="s">
         <v>317</v>
       </c>
       <c r="D51" t="s">
@@ -12918,7 +13319,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13012,10 +13413,10 @@
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" t="s">
         <v>368</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" t="s">
         <v>318</v>
       </c>
       <c r="D2" s="3"/>
@@ -13048,10 +13449,10 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" t="s">
         <v>369</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" t="s">
         <v>319</v>
       </c>
       <c r="D3" s="3"/>
@@ -13084,10 +13485,10 @@
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="A4" t="s">
         <v>370</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" t="s">
         <v>320</v>
       </c>
       <c r="D4" s="3"/>
@@ -13120,10 +13521,10 @@
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+      <c r="A5" t="s">
         <v>371</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" t="s">
         <v>321</v>
       </c>
       <c r="D5" s="3"/>
@@ -13156,10 +13557,10 @@
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+      <c r="A6" t="s">
         <v>372</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" t="s">
         <v>322</v>
       </c>
       <c r="D6" s="3"/>
@@ -13192,10 +13593,10 @@
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+      <c r="A7" t="s">
         <v>373</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" t="s">
         <v>323</v>
       </c>
       <c r="D7" s="3"/>
@@ -13228,10 +13629,10 @@
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+      <c r="A8" t="s">
         <v>374</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" t="s">
         <v>324</v>
       </c>
       <c r="D8" s="3"/>
@@ -13264,10 +13665,10 @@
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+      <c r="A9" t="s">
         <v>375</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" t="s">
         <v>325</v>
       </c>
       <c r="D9" s="3"/>
@@ -13300,10 +13701,10 @@
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+      <c r="A10" t="s">
         <v>376</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" t="s">
         <v>326</v>
       </c>
       <c r="D10" s="3"/>
@@ -13336,10 +13737,10 @@
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+      <c r="A11" t="s">
         <v>377</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" t="s">
         <v>327</v>
       </c>
       <c r="D11" s="3"/>
@@ -13372,10 +13773,10 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+      <c r="A12" t="s">
         <v>378</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" t="s">
         <v>328</v>
       </c>
       <c r="E12" s="3" t="s">
@@ -13407,10 +13808,10 @@
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+      <c r="A13" t="s">
         <v>379</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" t="s">
         <v>329</v>
       </c>
       <c r="E13" s="3" t="s">
@@ -13442,10 +13843,10 @@
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
+      <c r="A14" t="s">
         <v>380</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" t="s">
         <v>330</v>
       </c>
       <c r="E14" s="3" t="s">
@@ -13477,10 +13878,10 @@
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
+      <c r="A15" t="s">
         <v>381</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" t="s">
         <v>331</v>
       </c>
       <c r="E15" s="3" t="s">
@@ -13512,10 +13913,10 @@
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
+      <c r="A16" t="s">
         <v>382</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" t="s">
         <v>332</v>
       </c>
       <c r="E16" s="3" t="s">
@@ -13547,10 +13948,10 @@
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
+      <c r="A17" t="s">
         <v>383</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" t="s">
         <v>333</v>
       </c>
       <c r="E17" s="3" t="s">
@@ -13582,10 +13983,10 @@
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
+      <c r="A18" t="s">
         <v>384</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" t="s">
         <v>334</v>
       </c>
       <c r="E18" s="3" t="s">
@@ -13617,10 +14018,10 @@
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
+      <c r="A19" t="s">
         <v>385</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" t="s">
         <v>335</v>
       </c>
       <c r="E19" s="3" t="s">
@@ -13652,10 +14053,10 @@
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
+      <c r="A20" t="s">
         <v>386</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" t="s">
         <v>336</v>
       </c>
       <c r="E20" s="3" t="s">
@@ -13687,10 +14088,10 @@
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
+      <c r="A21" t="s">
         <v>387</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" t="s">
         <v>337</v>
       </c>
       <c r="E21" s="3" t="s">
@@ -13722,10 +14123,10 @@
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
+      <c r="A22" t="s">
         <v>388</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" t="s">
         <v>338</v>
       </c>
       <c r="E22" s="3" t="s">
@@ -13757,10 +14158,10 @@
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
+      <c r="A23" t="s">
         <v>389</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" t="s">
         <v>339</v>
       </c>
       <c r="E23" s="3" t="s">
@@ -13792,10 +14193,10 @@
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
+      <c r="A24" t="s">
         <v>390</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" t="s">
         <v>340</v>
       </c>
       <c r="E24" s="3" t="s">
@@ -13827,10 +14228,10 @@
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
+      <c r="A25" t="s">
         <v>391</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" t="s">
         <v>341</v>
       </c>
       <c r="E25" s="3" t="s">
@@ -13862,10 +14263,10 @@
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
+      <c r="A26" t="s">
         <v>392</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" t="s">
         <v>342</v>
       </c>
       <c r="E26" s="3" t="s">
@@ -13897,10 +14298,10 @@
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
+      <c r="A27" t="s">
         <v>393</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" t="s">
         <v>343</v>
       </c>
       <c r="E27" s="3" t="s">
@@ -13932,10 +14333,10 @@
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
+      <c r="A28" t="s">
         <v>394</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" t="s">
         <v>344</v>
       </c>
       <c r="E28" s="3" t="s">
@@ -13967,10 +14368,10 @@
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
+      <c r="A29" t="s">
         <v>395</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" t="s">
         <v>345</v>
       </c>
       <c r="E29" s="3" t="s">
@@ -14002,10 +14403,10 @@
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A30" s="5" t="s">
+      <c r="A30" t="s">
         <v>396</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" t="s">
         <v>346</v>
       </c>
       <c r="E30" s="3" t="s">
@@ -14037,10 +14438,10 @@
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="s">
+      <c r="A31" t="s">
         <v>397</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" t="s">
         <v>347</v>
       </c>
       <c r="E31" s="3" t="s">
@@ -14072,10 +14473,10 @@
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A32" s="5" t="s">
+      <c r="A32" t="s">
         <v>398</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" t="s">
         <v>348</v>
       </c>
       <c r="E32" s="3" t="s">
@@ -14110,10 +14511,10 @@
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A33" s="5" t="s">
+      <c r="A33" t="s">
         <v>399</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" t="s">
         <v>349</v>
       </c>
       <c r="E33" s="3" t="s">
@@ -14148,10 +14549,10 @@
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A34" s="5" t="s">
+      <c r="A34" t="s">
         <v>400</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" t="s">
         <v>350</v>
       </c>
       <c r="E34" s="3" t="s">
@@ -14186,10 +14587,10 @@
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A35" s="5" t="s">
+      <c r="A35" t="s">
         <v>401</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" t="s">
         <v>351</v>
       </c>
       <c r="E35" s="3" t="s">
@@ -14224,10 +14625,10 @@
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A36" s="5" t="s">
+      <c r="A36" t="s">
         <v>402</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" t="s">
         <v>352</v>
       </c>
       <c r="E36" s="3" t="s">
@@ -14262,10 +14663,10 @@
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A37" s="5" t="s">
+      <c r="A37" t="s">
         <v>403</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" t="s">
         <v>353</v>
       </c>
       <c r="E37" s="3" t="s">
@@ -14300,10 +14701,10 @@
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A38" s="5" t="s">
+      <c r="A38" t="s">
         <v>404</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" t="s">
         <v>354</v>
       </c>
       <c r="E38" s="3" t="s">
@@ -14338,10 +14739,10 @@
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A39" s="5" t="s">
+      <c r="A39" t="s">
         <v>405</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" t="s">
         <v>355</v>
       </c>
       <c r="E39" s="3" t="s">
@@ -14376,10 +14777,10 @@
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A40" s="5" t="s">
+      <c r="A40" t="s">
         <v>406</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" t="s">
         <v>356</v>
       </c>
       <c r="E40" s="3" t="s">
@@ -14414,10 +14815,10 @@
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A41" s="5" t="s">
+      <c r="A41" t="s">
         <v>407</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" t="s">
         <v>357</v>
       </c>
       <c r="E41" s="3" t="s">
@@ -14452,10 +14853,10 @@
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A42" s="5" t="s">
+      <c r="A42" t="s">
         <v>408</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" t="s">
         <v>358</v>
       </c>
       <c r="E42" s="3" t="s">
@@ -14490,10 +14891,10 @@
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A43" s="5" t="s">
+      <c r="A43" t="s">
         <v>409</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" t="s">
         <v>359</v>
       </c>
       <c r="E43" s="3" t="s">
@@ -14528,10 +14929,10 @@
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A44" s="5" t="s">
+      <c r="A44" t="s">
         <v>410</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C44" t="s">
         <v>360</v>
       </c>
       <c r="E44" s="3" t="s">
@@ -14566,10 +14967,10 @@
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A45" s="5" t="s">
+      <c r="A45" t="s">
         <v>411</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C45" t="s">
         <v>361</v>
       </c>
       <c r="E45" s="3" t="s">
@@ -14604,10 +15005,10 @@
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A46" s="5" t="s">
+      <c r="A46" t="s">
         <v>412</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C46" t="s">
         <v>362</v>
       </c>
       <c r="E46" s="3" t="s">
@@ -14642,10 +15043,10 @@
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A47" s="5" t="s">
+      <c r="A47" t="s">
         <v>413</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C47" t="s">
         <v>363</v>
       </c>
       <c r="E47" s="3" t="s">
@@ -14680,10 +15081,10 @@
       </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A48" s="5" t="s">
+      <c r="A48" t="s">
         <v>414</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C48" t="s">
         <v>364</v>
       </c>
       <c r="E48" s="3" t="s">
@@ -14718,10 +15119,10 @@
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A49" s="5" t="s">
+      <c r="A49" t="s">
         <v>415</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C49" t="s">
         <v>365</v>
       </c>
       <c r="E49" s="3" t="s">
@@ -14756,10 +15157,10 @@
       </c>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A50" s="5" t="s">
+      <c r="A50" t="s">
         <v>416</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C50" t="s">
         <v>366</v>
       </c>
       <c r="E50" s="3" t="s">
@@ -14794,10 +15195,10 @@
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A51" s="5" t="s">
+      <c r="A51" t="s">
         <v>417</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C51" t="s">
         <v>367</v>
       </c>
       <c r="E51" s="3" t="s">
